--- a/biology/Botanique/Paul_Évariste_Parmentier/Paul_Évariste_Parmentier.xlsx
+++ b/biology/Botanique/Paul_Évariste_Parmentier/Paul_Évariste_Parmentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_%C3%89variste_Parmentier</t>
+          <t>Paul_Évariste_Parmentier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Évariste Parmentier est un botaniste français, né le 29 avril 1860 à Semmadon et mort le 10 mai 1941 à Besançon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_%C3%89variste_Parmentier</t>
+          <t>Paul_Évariste_Parmentier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmentier est instituteur dans le Jura de 1878 à 1881, puis professeur à Arbois de 1882 à 1889 et de Baume-les-Dames de 1889 à 1898. Il devient bachelier ès-sciences en 1886, puis licencié ès sciences naturelles à Besançon en 1889, puis docteur ès sciences naturelles à Lyon en 1892.
-Il publie en 1896 une étude sur l'anatomie foliaire et raméale des Magnoliaceae, avec la description de 34 nouveaux taxons[1].
-De 1898 à 1919, il est professeur de botanique agricole à la faculté des sciences de Besançon, puis de 1919 à 1930, professeur de botanique. Il dirige en outre la station agronomique de Franche-Comté de 1902 à 1920[2] ainsi que le laboratoire des recherches agricoles pour le service de répression des fraudes de 1908 à 1919.
+Il publie en 1896 une étude sur l'anatomie foliaire et raméale des Magnoliaceae, avec la description de 34 nouveaux taxons.
+De 1898 à 1919, il est professeur de botanique agricole à la faculté des sciences de Besançon, puis de 1919 à 1930, professeur de botanique. Il dirige en outre la station agronomique de Franche-Comté de 1902 à 1920 ainsi que le laboratoire des recherches agricoles pour le service de répression des fraudes de 1908 à 1919.
 Parmentier dirige la Société d’horticulture du Doubs de 1903 à 1941. Il fait paraître de nombreux travaux sur la botanique appliquée tant en agriculture qu’en horticulture ainsi que des travaux d’histologie et d’horticulture.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_%C3%89variste_Parmentier</t>
+          <t>Paul_Évariste_Parmentier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« Histoire des Magnoliacées », Bulletin scientifique de la France et de la Belgique, n° 27, 1896, p. 159–337[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Histoire des Magnoliacées », Bulletin scientifique de la France et de la Belgique, n° 27, 1896, p. 159–337.
 En collaboration avec X. Gillot : « L'anatomie végétale et la botanique systématique. Nature hybride du Rumex Palustris Sm. », dans Bulletin de la Société Botanique de France, 1897, vol. 44, n° 4, p. 325-339 Lire en ligne.
 Recherches anatomiques et taxinomiques sur les rosiers, Masson, 1898.
 Traité élémentaire et pratique de botanique agricole, Doin, 1902.
